--- a/templates/report_managers.xlsx
+++ b/templates/report_managers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Отчет по работе ВСЕХ менеджеров за период</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>${total_in_work}</t>
-  </si>
-  <si>
-    <t>powered by ccs.msk.ru</t>
   </si>
   <si>
     <t>с ${from_date} по ${to_date}</t>
@@ -662,7 +659,9 @@
   </sheetPr>
   <dimension ref="A2:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -684,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -827,9 +826,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K14" s="18" t="s">
-        <v>36</v>
-      </c>
+      <c r="K14" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
